--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.44</v>
+        <v>3.76</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-preston/GKjqFGGJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.36</v>
+        <v>4.19</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.59</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.19</v>
+        <v>4.95</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>5.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.71</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.69</v>
+        <v>2.36</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.88</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.9</v>
+        <v>3.47</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.95</v>
+        <v>3.05</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.47</v>
+        <v>3.17</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.78</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.47</v>
+        <v>3.8</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>4.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.17</v>
+        <v>4.71</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N8" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22/06/2023 11:46</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>22/06/2023 11:46</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>3.78</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>22/06/2023 11:47</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22/06/2023 11:47</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>4.71</v>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.19</v>
+        <v>3.29</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-preston/GKjqFGGJ/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.37</v>
+        <v>3.48</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.84</v>
+        <v>3.26</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.18</v>
+        <v>3.02</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.91</v>
+        <v>2.54</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.64</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.78</v>
+        <v>2.44</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.32</v>
+        <v>2.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,22 +1961,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5.17</v>
+        <v>1.71</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.02</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.76</v>
+        <v>3.57</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>5.37</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>4.34</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.46</v>
+        <v>3.68</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.61</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.18</v>
+        <v>3.63</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.61</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.64</v>
+        <v>3.18</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.71</v>
+        <v>5.17</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.93</v>
+        <v>4.02</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,40 +2260,40 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.82</v>
+        <v>4.25</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.57</v>
+        <v>3.76</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.37</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.34</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.54</v>
+        <v>3.37</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -2413,62 +2413,62 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.48</v>
+        <v>1.91</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>12/08/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:54</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>2.68</v>
+        <v>3.78</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>4.32</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,32 +2636,32 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.61</v>
+        <v>4.08</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>12/08/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>07/08/2023 13:08</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>12/08/2023 15:49</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>07/08/2023 13:08</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:51</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
         </is>
       </c>
     </row>
@@ -2689,34 +2689,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2724,36 +2724,36 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.08</v>
+        <v>3.61</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.77</v>
+        <v>3.55</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.64</v>
+        <v>3.64</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
-        <v>5.52</v>
+        <v>1.35</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.83</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.17</v>
+        <v>5.41</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.22</v>
+        <v>5.58</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.63</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.61</v>
+        <v>8.76</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-leicester/x44NWurM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>2.91</v>
+        <v>5.52</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.47</v>
+        <v>5.83</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:25</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.3</v>
+        <v>4.17</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.34</v>
+        <v>4.22</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.09</v>
+        <v>1.61</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-swansea/MgsngrDq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-leicester/x44NWurM/</t>
         </is>
       </c>
     </row>
@@ -4161,62 +4161,62 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.17</v>
+        <v>2.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>26/08/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>19/08/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
           <t>26/08/2023 15:56</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>20/08/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:54</t>
-        </is>
-      </c>
       <c r="R41" t="n">
-        <v>3.61</v>
+        <v>2.59</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.94</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-swansea/MgsngrDq/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.36</v>
+        <v>2.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,31 +4284,31 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.22</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.67</v>
+        <v>3.19</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>26/08/2023 15:48</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-leeds/Uw1FY1D9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.36</v>
+        <v>2.39</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.69</v>
+        <v>2.36</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:36</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:48</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.23</v>
+        <v>3.3</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.07</v>
+        <v>3.02</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-norwich/YB76zOrc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-leeds/Uw1FY1D9/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.99</v>
+        <v>3.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.02</v>
+        <v>3.69</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>26/08/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>20/08/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>26/08/2023 15:54</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:13</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R44" t="n">
-        <v>3.77</v>
+        <v>2.23</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.89</v>
+        <v>2.07</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-sunderland/K8JOBv6d/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-norwich/YB76zOrc/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.39</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.01</v>
+        <v>3.77</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.47</v>
+        <v>3.89</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-sheffield-wed/GC4JcO4S/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-sunderland/K8JOBv6d/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.48</v>
+        <v>4.01</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.05</v>
+        <v>3.47</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-plymouth/tIKKCKjj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-sheffield-wed/GC4JcO4S/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.49</v>
+        <v>3.63</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.29</v>
+        <v>4.48</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.12</v>
+        <v>4.05</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-plymouth/tIKKCKjj/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.35</v>
+        <v>2.18</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5.41</v>
+        <v>3.68</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>5.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>9.029999999999999</v>
+        <v>3.29</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.76</v>
+        <v>3.12</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.37</v>
+        <v>1.86</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.07</v>
+        <v>4.04</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.98</v>
+        <v>4.52</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.97</v>
+        <v>2.75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.86</v>
+        <v>2.31</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.29</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.04</v>
+        <v>2.69</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.52</v>
+        <v>3.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.29</v>
+        <v>3.7</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>3.07</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.44</v>
+        <v>2.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,558 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/millwall-leeds/6qvubItL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:15</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:39</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:39</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:39</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45188.86458333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45188.875</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-middlesbrough/pjTvubit/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,62 +1769,62 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.48</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>12/08/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>06/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:54</t>
-        </is>
-      </c>
       <c r="R15" t="n">
-        <v>2.68</v>
+        <v>3.78</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>4.32</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.02</v>
+        <v>5.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.54</v>
+        <v>4.02</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.42</v>
+        <v>4.25</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.36</v>
+        <v>3.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.44</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.97</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.82</v>
+        <v>3.46</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.37</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.34</v>
+        <v>3.18</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>3.02</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.18</v>
+        <v>2.97</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>5.17</v>
+        <v>2.86</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.02</v>
+        <v>3.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.25</v>
+        <v>3.26</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>2.68</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>1.79</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.37</v>
+        <v>2.04</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.3</v>
+        <v>3.69</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.84</v>
+        <v>4.66</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.34</v>
+        <v>3.74</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.91</v>
+        <v>3.37</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.84</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.78</v>
+        <v>1.84</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.32</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -2505,34 +2505,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2540,36 +2540,36 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.69</v>
+        <v>3.57</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.66</v>
+        <v>5.37</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.74</v>
+        <v>4.34</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.6</v>
+        <v>3.81</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.45</v>
+        <v>3.77</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.86</v>
+        <v>2.98</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.52</v>
+        <v>2.45</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.95</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.09</v>
+        <v>4.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.81</v>
+        <v>4.5</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.77</v>
+        <v>4.09</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.77</v>
+        <v>3.3</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.42</v>
+        <v>3.09</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.78</v>
+        <v>3.53</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.34</v>
+        <v>3.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.77</v>
+        <v>1.62</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.37</v>
+        <v>3.77</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>4.42</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.76</v>
+        <v>3.78</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.69</v>
+        <v>5.34</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,558 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-middlesbrough/pjTvubit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45189.86458333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:57</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:57</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>17/09/2023 09:57</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45189.86458333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:40</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:40</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:40</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45189.86458333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45189.86458333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45189.86458333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45189.875</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leicester/pWpdZgLH/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.68</v>
+        <v>3.82</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.75</v>
+        <v>5.37</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.63</v>
+        <v>4.34</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Bristol City</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.37</v>
+        <v>3.75</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.34</v>
+        <v>3.63</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>2.99</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.53</v>
+        <v>2.47</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.99</v>
+        <v>2.24</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.47</v>
+        <v>3.53</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.68</v>
+        <v>3.44</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,98 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/norwich-leicester/pWpdZgLH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45191.875</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-qpr/6oZ4XXkU/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.91</v>
+        <v>3.37</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.84</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.78</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.32</v>
+        <v>2.34</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -1861,46 +1861,46 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>5.17</v>
+        <v>1.79</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.02</v>
+        <v>2.04</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,15 +1908,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>4.66</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.94</v>
+        <v>3.74</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>12/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>12/08/2023 15:54</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>07/08/2023 13:08</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:50</t>
-        </is>
-      </c>
       <c r="R17" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.18</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.71</v>
+        <v>3.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.93</v>
+        <v>2.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.82</v>
+        <v>3.42</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>5.37</v>
+        <v>2.44</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.34</v>
+        <v>2.97</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.02</v>
+        <v>1.71</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.54</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.44</v>
+        <v>5.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.97</v>
+        <v>4.34</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.86</v>
+        <v>2.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.48</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.26</v>
+        <v>3.68</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.48</v>
+        <v>3.61</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.68</v>
+        <v>3.75</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>3.63</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.82</v>
+        <v>3.46</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.66</v>
+        <v>3.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.74</v>
+        <v>3.18</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Leeds</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>5.17</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.37</v>
+        <v>4.02</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.84</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.39</v>
+        <v>4.46</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.25</v>
+        <v>5.26</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.34</v>
+        <v>6.09</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.27</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.57</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.87</v>
+        <v>4.75</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.89</v>
+        <v>4.93</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.86</v>
+        <v>6.03</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.81</v>
+        <v>6.46</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.72</v>
+        <v>5.71</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.38</v>
+        <v>6.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.48</v>
+        <v>3.58</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.97</v>
+        <v>3.26</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.71</v>
+        <v>2.72</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.43</v>
+        <v>2.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.51</v>
+        <v>4.27</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.48</v>
+        <v>4.57</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.75</v>
+        <v>3.87</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.03</v>
+        <v>1.86</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.46</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.21</v>
+        <v>3.68</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.26</v>
+        <v>4.25</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.09</v>
+        <v>4.34</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.49</v>
+        <v>4.58</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.58</v>
+        <v>5.48</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.26</v>
+        <v>5.97</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.87</v>
+        <v>2.33</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.42</v>
+        <v>3.07</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.96</v>
+        <v>2.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.97</v>
+        <v>2.31</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.68</v>
+        <v>3.29</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.13</v>
+        <v>2.69</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.98</v>
+        <v>3.44</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>03/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
         <v>3.68</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3.87</v>
-      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.81</v>
+        <v>4.04</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.77</v>
+        <v>4.52</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.98</v>
+        <v>1.93</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.52</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.45</v>
+        <v>4.09</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,11 +6760,11 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.29</v>
+        <v>3.52</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.44</v>
+        <v>2.45</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6829,34 +6829,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.33</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.37</v>
+        <v>3.97</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6864,36 +6864,36 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.07</v>
+        <v>2.13</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.75</v>
+        <v>3.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.5</v>
+        <v>4.42</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.09</v>
+        <v>3.96</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.62</v>
+        <v>2.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.77</v>
+        <v>3.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.42</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.78</v>
+        <v>2.76</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.34</v>
+        <v>2.69</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.76</v>
+        <v>3.53</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.69</v>
+        <v>3.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.24</v>
+        <v>2.99</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.53</v>
+        <v>2.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,926 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/birmingham-qpr/6oZ4XXkU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-hull-city/KlavnX4N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-cardiff/K8DncCVE/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.21</v>
+        <v>3.68</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.26</v>
+        <v>4.25</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.09</v>
+        <v>4.34</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>4.27</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>4.57</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.75</v>
+        <v>3.87</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.03</v>
+        <v>1.86</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>6.46</v>
+        <v>1.81</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.71</v>
+        <v>2.72</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.43</v>
+        <v>2.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.49</v>
+        <v>4.58</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.58</v>
+        <v>5.48</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.26</v>
+        <v>5.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.72</v>
+        <v>5.71</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.38</v>
+        <v>6.43</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.27</v>
+        <v>1.51</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.57</v>
+        <v>1.48</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.87</v>
+        <v>4.75</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.89</v>
+        <v>4.93</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.86</v>
+        <v>6.03</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>6.46</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.39</v>
+        <v>4.46</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.25</v>
+        <v>5.26</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.34</v>
+        <v>6.09</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.48</v>
+        <v>3.58</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>5.97</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.07</v>
+        <v>4.42</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.86</v>
+        <v>2.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.52</v>
+        <v>2.45</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.78</v>
+        <v>2.75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.93</v>
+        <v>2.31</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.5</v>
+        <v>2.69</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.81</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.77</v>
+        <v>4.09</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.98</v>
+        <v>1.86</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>4.04</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>4.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6829,34 +6829,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.55</v>
+        <v>2.33</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.97</v>
+        <v>2.37</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6864,36 +6864,36 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.13</v>
+        <v>3.07</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.98</v>
+        <v>2.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.42</v>
+        <v>3.81</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.96</v>
+        <v>3.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.77</v>
+        <v>3.74</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.78</v>
+        <v>3.04</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.34</v>
+        <v>3.28</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.76</v>
+        <v>2.47</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>19/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>19/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>16/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>19/09/2023 20:41</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:41</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.99</v>
+        <v>2.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L77" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>19/09/2023 20:15</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>2.76</v>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:40</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:39</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:38</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>2.47</v>
-      </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.94</v>
+        <v>2.96</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,11 +8416,11 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.07</v>
+        <v>3.43</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.42</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.12</v>
+        <v>2.39</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.94</v>
+        <v>2.07</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8485,62 +8485,62 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.11</v>
+        <v>3.57</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.69</v>
+        <v>4.08</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.02</v>
+        <v>3.78</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.77</v>
+        <v>2.07</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.97</v>
+        <v>3.42</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.96</v>
+        <v>4.12</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.7</v>
+        <v>3.94</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8696,11 +8696,11 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.36</v>
+        <v>4.11</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,32 +8708,32 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R90" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T90" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -8761,30 +8761,30 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.53</v>
+        <v>1.71</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.21</v>
+        <v>1.77</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,31 +8792,31 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.56</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.71</v>
+        <v>3.97</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.85</v>
+        <v>4.96</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.26</v>
+        <v>4.7</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.96</v>
+        <v>1.63</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.43</v>
+        <v>1.66</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.62</v>
+        <v>4.36</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.92</v>
+        <v>4.28</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.39</v>
+        <v>5.19</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.07</v>
+        <v>5.15</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -8945,46 +8945,46 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.95</v>
+        <v>2.53</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.52</v>
+        <v>2.21</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.25</v>
+        <v>3.71</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,24 +8992,24 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.56</v>
+        <v>2.85</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.29</v>
+        <v>3.26</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>2.95</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.08</v>
+        <v>2.56</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.78</v>
+        <v>2.29</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,98 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/sunderland-cardiff/K8DncCVE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-huddersfield/IJFAhHLu/</t>
         </is>
       </c>
     </row>
